--- a/Ada.Web/upload/sell.xlsx
+++ b/Ada.Web/upload/sell.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adaxi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCode\AdaSystem\Ada.Web\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,257 +24,212 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>1-99</t>
+  </si>
+  <si>
+    <t>100-150</t>
+  </si>
   <si>
     <t>150-199</t>
+  </si>
+  <si>
+    <t>200-299</t>
+  </si>
+  <si>
+    <t>300-399</t>
+  </si>
+  <si>
+    <t>400-499</t>
+  </si>
+  <si>
+    <t>500-599</t>
+  </si>
+  <si>
+    <t>600-699</t>
+  </si>
+  <si>
+    <t>700-799</t>
+  </si>
+  <si>
+    <t>800-899</t>
+  </si>
+  <si>
+    <t>900-999</t>
+  </si>
+  <si>
+    <t>1000-1999</t>
+  </si>
+  <si>
+    <t>2000-2999</t>
+  </si>
+  <si>
+    <t>3000-3999</t>
+  </si>
+  <si>
+    <t>4000-4999</t>
+  </si>
+  <si>
+    <t>5000-5999</t>
+  </si>
+  <si>
+    <t>6000-6999</t>
+  </si>
+  <si>
+    <t>7000-7999</t>
+  </si>
+  <si>
+    <t>8000-8999</t>
+  </si>
+  <si>
+    <t>9000-9999</t>
+  </si>
+  <si>
+    <t>10000-14999</t>
+  </si>
+  <si>
+    <t>15000-19999</t>
+  </si>
+  <si>
+    <t>20000-24999</t>
+  </si>
+  <si>
+    <t>25000-29999</t>
+  </si>
+  <si>
+    <t>30000-34999</t>
+  </si>
+  <si>
+    <t>35000-39999</t>
+  </si>
+  <si>
+    <t>40000-44999</t>
+  </si>
+  <si>
+    <t>45000-49999</t>
+  </si>
+  <si>
+    <t>50000-54999</t>
+  </si>
+  <si>
+    <t>55000-59999</t>
+  </si>
+  <si>
+    <t>60000-64999</t>
+  </si>
+  <si>
+    <t>65000-69999</t>
+  </si>
+  <si>
+    <t>70000-74999</t>
+  </si>
+  <si>
+    <t>75000-79999</t>
+  </si>
+  <si>
+    <t>80000-84999</t>
+  </si>
+  <si>
+    <t>85000-89999</t>
+  </si>
+  <si>
+    <t>90000-94999</t>
+  </si>
+  <si>
+    <t>95000-99999</t>
+  </si>
+  <si>
+    <t>100000-149999</t>
+  </si>
+  <si>
+    <t>150000-199999</t>
+  </si>
+  <si>
+    <t>200000-249999</t>
+  </si>
+  <si>
+    <t>250000-299999</t>
+  </si>
+  <si>
+    <t>300000-349999</t>
+  </si>
+  <si>
+    <t>350000-399999</t>
+  </si>
+  <si>
+    <t>400000-449999</t>
+  </si>
+  <si>
+    <t>450000-499999</t>
+  </si>
+  <si>
+    <t>500000-549999</t>
+  </si>
+  <si>
+    <t>550000-599999</t>
+  </si>
+  <si>
+    <t>600000-649999</t>
+  </si>
+  <si>
+    <t>650000-699999</t>
+  </si>
+  <si>
+    <t>700000-749999</t>
+  </si>
+  <si>
+    <t>750000-799999</t>
+  </si>
+  <si>
+    <t>800000-849999</t>
+  </si>
+  <si>
+    <t>850000-899999</t>
+  </si>
+  <si>
+    <t>900000-949999</t>
+  </si>
+  <si>
+    <t>950000-999999</t>
+  </si>
+  <si>
+    <t>1000000-1499999</t>
+  </si>
+  <si>
+    <t>1500000-1999999</t>
+  </si>
+  <si>
+    <t>2000000-2499999</t>
+  </si>
+  <si>
+    <t>2500000-2999999</t>
+  </si>
+  <si>
+    <t>3000000-3499999</t>
+  </si>
+  <si>
+    <t>3500000-3999999</t>
+  </si>
+  <si>
+    <t>4000000-4499999</t>
+  </si>
+  <si>
+    <t>4500000-4999999</t>
+  </si>
+  <si>
+    <t>5000000-99999999</t>
+  </si>
+  <si>
+    <t>区间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200-299</t>
+    <t>加价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300-399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400-499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500-599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600-699</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700-799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800-899</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900-999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000-1999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000-2999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000-3999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000-4999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000-5999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000-6999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000-7999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000-8999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000-9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000-14999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000-19999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000-24999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000-29999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000-34999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35000-39999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000-44999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45000-49999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000-54999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55000-59999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000-64999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65000-69999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70000-74999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75000-79999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000-84999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85000-89999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90000-94999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95000-99999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000-149999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000-199999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000-249999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000-299999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000-349999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000-399999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000-449999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450000-499999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000-549999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>550000-599999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000-649999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>650000-699999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700000-749999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750000-799999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000-849999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>850000-899999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900000-949999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>950000-999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000-1499999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000-1999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000-2499999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000-2999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000-3499999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500000-3999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000-4499999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500000-4999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000-999999999</t>
+    <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,707 +560,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>400</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>400</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>500</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>600</v>
+      </c>
+      <c r="C6">
         <v>5</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>700</v>
+      </c>
+      <c r="C7">
         <v>6</v>
-      </c>
-      <c r="B7">
-        <v>500</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>800</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>900</v>
+      </c>
+      <c r="C9">
         <v>8</v>
-      </c>
-      <c r="B9">
-        <v>800</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
         <v>9</v>
-      </c>
-      <c r="B10">
-        <v>800</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
         <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1500</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1500</v>
+      </c>
+      <c r="C13">
         <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1800</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1500</v>
+      </c>
+      <c r="C14">
         <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2000</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2000</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2500</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3500</v>
+      </c>
+      <c r="C18">
         <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3000</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>4000</v>
+      </c>
+      <c r="C19">
         <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1.3</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>4500</v>
+      </c>
+      <c r="C20">
         <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.3</v>
-      </c>
-      <c r="C20">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
         <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1.3</v>
-      </c>
-      <c r="C21">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
         <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1.3</v>
-      </c>
-      <c r="C22">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>6000</v>
+      </c>
+      <c r="C23">
         <v>22</v>
-      </c>
-      <c r="B23">
-        <v>9000</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>8000</v>
+      </c>
+      <c r="C24">
         <v>23</v>
-      </c>
-      <c r="B24">
-        <v>10000</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>10000</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>10000</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>10000</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>15000</v>
+      </c>
+      <c r="C28">
         <v>27</v>
-      </c>
-      <c r="B28">
-        <v>13000</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>15000</v>
+      </c>
+      <c r="C29">
         <v>28</v>
-      </c>
-      <c r="B29">
-        <v>13000</v>
-      </c>
-      <c r="C29">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>15000</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>20000</v>
+      </c>
+      <c r="C31">
         <v>30</v>
-      </c>
-      <c r="B31">
-        <v>15000</v>
-      </c>
-      <c r="C31">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>20000</v>
+      </c>
+      <c r="C32">
         <v>31</v>
-      </c>
-      <c r="B32">
-        <v>15000</v>
-      </c>
-      <c r="C32">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20000</v>
+      </c>
+      <c r="C33">
         <v>32</v>
-      </c>
-      <c r="B33">
-        <v>15000</v>
-      </c>
-      <c r="C33">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>25000</v>
+      </c>
+      <c r="C34">
         <v>33</v>
-      </c>
-      <c r="B34">
-        <v>15000</v>
-      </c>
-      <c r="C34">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>25000</v>
+      </c>
+      <c r="C35">
         <v>34</v>
-      </c>
-      <c r="B35">
-        <v>15000</v>
-      </c>
-      <c r="C35">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>30000</v>
+      </c>
+      <c r="C36">
         <v>35</v>
-      </c>
-      <c r="B36">
-        <v>15000</v>
-      </c>
-      <c r="C36">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>30000</v>
+      </c>
+      <c r="C37">
         <v>36</v>
-      </c>
-      <c r="B37">
-        <v>20000</v>
-      </c>
-      <c r="C37">
-        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>30000</v>
+      </c>
+      <c r="C38">
         <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1.18</v>
-      </c>
-      <c r="C38">
-        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>30000</v>
+      </c>
+      <c r="C39">
         <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1.18</v>
-      </c>
-      <c r="C39">
-        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>50000</v>
+      </c>
+      <c r="C40">
         <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1.18</v>
-      </c>
-      <c r="C40">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>50000</v>
+      </c>
+      <c r="C41">
         <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1.18</v>
-      </c>
-      <c r="C41">
-        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>50000</v>
+      </c>
+      <c r="C42">
         <v>41</v>
-      </c>
-      <c r="B42">
-        <v>1.18</v>
-      </c>
-      <c r="C42">
-        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>50000</v>
+      </c>
+      <c r="C43">
         <v>42</v>
-      </c>
-      <c r="B43">
-        <v>1.18</v>
-      </c>
-      <c r="C43">
-        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>80000</v>
+      </c>
+      <c r="C44">
         <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1.18</v>
-      </c>
-      <c r="C44">
-        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>80000</v>
+      </c>
+      <c r="C45">
         <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1.18</v>
-      </c>
-      <c r="C45">
-        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>80000</v>
+      </c>
+      <c r="C46">
         <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1.18</v>
-      </c>
-      <c r="C46">
-        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>80000</v>
+      </c>
+      <c r="C47">
         <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1.18</v>
-      </c>
-      <c r="C47">
-        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>100000</v>
+      </c>
+      <c r="C48">
         <v>47</v>
-      </c>
-      <c r="B48">
-        <v>1.18</v>
-      </c>
-      <c r="C48">
-        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>100000</v>
+      </c>
+      <c r="C49">
         <v>48</v>
-      </c>
-      <c r="B49">
-        <v>1.18</v>
-      </c>
-      <c r="C49">
-        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>150000</v>
+      </c>
+      <c r="C50">
         <v>49</v>
-      </c>
-      <c r="B50">
-        <v>1.18</v>
-      </c>
-      <c r="C50">
-        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>150000</v>
+      </c>
+      <c r="C51">
         <v>50</v>
-      </c>
-      <c r="B51">
-        <v>1.18</v>
-      </c>
-      <c r="C51">
-        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>200000</v>
+      </c>
+      <c r="C52">
         <v>51</v>
-      </c>
-      <c r="B52">
-        <v>1.18</v>
-      </c>
-      <c r="C52">
-        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>200000</v>
+      </c>
+      <c r="C53">
         <v>52</v>
-      </c>
-      <c r="B53">
-        <v>1.18</v>
-      </c>
-      <c r="C53">
-        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>200000</v>
+      </c>
+      <c r="C54">
         <v>53</v>
-      </c>
-      <c r="B54">
-        <v>1.18</v>
-      </c>
-      <c r="C54">
-        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>200000</v>
+      </c>
+      <c r="C55">
         <v>54</v>
-      </c>
-      <c r="B55">
-        <v>1.18</v>
-      </c>
-      <c r="C55">
-        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>300000</v>
+      </c>
+      <c r="C56">
         <v>55</v>
-      </c>
-      <c r="B56">
-        <v>1.18</v>
-      </c>
-      <c r="C56">
-        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>300000</v>
+      </c>
+      <c r="C57">
         <v>56</v>
-      </c>
-      <c r="B57">
-        <v>1.18</v>
-      </c>
-      <c r="C57">
-        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>300000</v>
+      </c>
+      <c r="C58">
         <v>57</v>
-      </c>
-      <c r="B58">
-        <v>1.18</v>
-      </c>
-      <c r="C58">
-        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>300000</v>
+      </c>
+      <c r="C59">
         <v>58</v>
-      </c>
-      <c r="B59">
-        <v>1.18</v>
-      </c>
-      <c r="C59">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>400000</v>
+      </c>
+      <c r="C60">
         <v>59</v>
-      </c>
-      <c r="B60">
-        <v>1.18</v>
-      </c>
-      <c r="C60">
-        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>400000</v>
+      </c>
+      <c r="C61">
         <v>60</v>
-      </c>
-      <c r="B61">
-        <v>1.18</v>
-      </c>
-      <c r="C61">
-        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>500000</v>
+      </c>
+      <c r="C62">
         <v>61</v>
-      </c>
-      <c r="B62">
-        <v>1.18</v>
-      </c>
-      <c r="C62">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>500000</v>
+      </c>
+      <c r="C63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>1.5</v>
-      </c>
-      <c r="C63">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>600000</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>600000</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>8000000</v>
+      </c>
+      <c r="C66">
         <v>65</v>
       </c>
     </row>

--- a/Ada.Web/upload/sell.xlsx
+++ b/Ada.Web/upload/sell.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -730,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -752,7 +752,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -763,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -774,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -807,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5000</v>
+        <v>1.4</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -818,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6000</v>
+        <v>1.4</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8000</v>
+        <v>1.4</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -840,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10000</v>
+        <v>1.4</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -851,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -873,7 +873,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -884,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -895,7 +895,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -939,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -950,7 +950,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -961,7 +961,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -972,7 +972,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -983,7 +983,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -994,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1005,7 +1005,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>50000</v>
+        <v>1.2</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1016,7 +1016,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>50000</v>
+        <v>1.2</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1027,7 +1027,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>50000</v>
+        <v>1.2</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1038,7 +1038,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>50000</v>
+        <v>1.2</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1049,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>80000</v>
+        <v>1.2</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1060,7 +1060,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>80000</v>
+        <v>1.2</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1071,7 +1071,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>80000</v>
+        <v>1.2</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1082,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>80000</v>
+        <v>1.2</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1093,7 +1093,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>100000</v>
+        <v>1.2</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1104,7 +1104,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>100000</v>
+        <v>1.2</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1115,7 +1115,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>150000</v>
+        <v>1.2</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1126,7 +1126,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>150000</v>
+        <v>1.2</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1137,7 +1137,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>200000</v>
+        <v>1.2</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1148,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>200000</v>
+        <v>1.2</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1159,7 +1159,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>200000</v>
+        <v>1.2</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1170,7 +1170,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>200000</v>
+        <v>1.2</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -1181,7 +1181,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>300000</v>
+        <v>1.2</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1192,7 +1192,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>300000</v>
+        <v>1.2</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -1203,7 +1203,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>300000</v>
+        <v>1.2</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -1214,7 +1214,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>300000</v>
+        <v>1.2</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -1225,7 +1225,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>400000</v>
+        <v>1.2</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -1236,7 +1236,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>400000</v>
+        <v>1.2</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1247,7 +1247,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>500000</v>
+        <v>1.2</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -1258,7 +1258,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>500000</v>
+        <v>1.2</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -1269,7 +1269,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>600000</v>
+        <v>1.2</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>600000</v>
+        <v>1.2</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -1291,7 +1291,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8000000</v>
+        <v>1.2</v>
       </c>
       <c r="C66">
         <v>65</v>

--- a/Ada.Web/upload/sell.xlsx
+++ b/Ada.Web/upload/sell.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCode\AdaSystem\Ada.Web\upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+  <si>
+    <t>区间</t>
+  </si>
+  <si>
+    <t>加价</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
   <si>
     <t>1-99</t>
   </si>
@@ -219,50 +218,373 @@
   </si>
   <si>
     <t>5000000-99999999</t>
-  </si>
-  <si>
-    <t>区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,9 +592,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -281,17 +845,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +983,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,306 +1157,301 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="H25" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>1.4</v>
+        <v>8000</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>1.4</v>
+        <v>8000</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>1.4</v>
+        <v>10000</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>1.4</v>
+        <v>10000</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>11000</v>
@@ -857,9 +1460,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>11000</v>
@@ -868,9 +1471,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>13000</v>
@@ -879,9 +1482,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>13000</v>
@@ -890,9 +1493,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>13000</v>
@@ -901,9 +1504,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>16000</v>
@@ -912,9 +1515,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>17000</v>
@@ -923,9 +1526,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>19000</v>
@@ -934,9 +1537,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>20000</v>
@@ -945,9 +1548,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>20000</v>
@@ -956,9 +1559,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>20000</v>
@@ -967,9 +1570,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>20000</v>
@@ -978,9 +1581,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>20000</v>
@@ -989,9 +1592,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>20000</v>
@@ -1000,9 +1603,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>1.2</v>
@@ -1011,9 +1614,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>1.2</v>
@@ -1022,9 +1625,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>1.2</v>
@@ -1033,9 +1636,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>1.2</v>
@@ -1044,9 +1647,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>1.2</v>
@@ -1055,9 +1658,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>1.2</v>
@@ -1066,9 +1669,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>1.2</v>
@@ -1077,9 +1680,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>1.2</v>
@@ -1088,9 +1691,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>1.2</v>
@@ -1099,9 +1702,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>1.2</v>
@@ -1110,9 +1713,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>1.2</v>
@@ -1121,9 +1724,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>1.2</v>
@@ -1132,9 +1735,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>1.2</v>
@@ -1143,9 +1746,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>1.2</v>
@@ -1154,9 +1757,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>1.2</v>
@@ -1165,9 +1768,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>1.2</v>
@@ -1176,9 +1779,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>1.2</v>
@@ -1187,9 +1790,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>1.2</v>
@@ -1198,9 +1801,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>1.2</v>
@@ -1209,9 +1812,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>1.2</v>
@@ -1220,9 +1823,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>1.2</v>
@@ -1231,9 +1834,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>1.2</v>
@@ -1242,9 +1845,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>1.2</v>
@@ -1253,9 +1856,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>1.2</v>
@@ -1264,9 +1867,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>1.2</v>
@@ -1275,9 +1878,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>1.2</v>
@@ -1286,9 +1889,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>1.2</v>
@@ -1298,8 +1901,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>